--- a/biology/Zoologie/Nathan_Fasten/Nathan_Fasten.xlsx
+++ b/biology/Zoologie/Nathan_Fasten/Nathan_Fasten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathan Fasten est un zoologiste américain d’origine autrichienne, né le 4 décembre 1887 et mort le 19 septembre 1953.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents partent s’installer aux États-Unis d'Amérique en 1889. Le jeune Nathan est naturalisé américain en 1896. Il obtient un Bachelor of Science au College City de New York en 1910 puis son doctorat à l’université du Wisconsin en 1914.
 Il dirige le département de biologie du Marshall College d’Huntington de 1910 à 1911, puis est assistant à l’institut de zoologie de l’université du Wisconsin de 1911 à 1914. De 1914 à 1920, il est professeur assistant de zoologie à l’université de Washington. Il se marie avec Frieda Mayer le 18 juin 1916 dont il aura trois enfants.
